--- a/Test/stats.xlsx
+++ b/Test/stats.xlsx
@@ -4,17 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="13875"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="13875" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="stats" sheetId="1" r:id="rId1"/>
+    <sheet name="stats (2)" sheetId="3" r:id="rId2"/>
+    <sheet name="Arkusz3" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="8">
   <si>
     <t>CPPFilter.dll</t>
   </si>
@@ -30,13 +32,22 @@
   <si>
     <t>przyspieszenie</t>
   </si>
+  <si>
+    <t>128-bit</t>
+  </si>
+  <si>
+    <t>256-bit</t>
+  </si>
+  <si>
+    <t>Wątki</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.00000"/>
+    <numFmt numFmtId="164" formatCode="0.00000"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -537,7 +548,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - akcent 1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -784,11 +795,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="169808256"/>
-        <c:axId val="169809792"/>
+        <c:axId val="201126272"/>
+        <c:axId val="201128192"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="169808256"/>
+        <c:axId val="201126272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -818,7 +829,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="169809792"/>
+        <c:crossAx val="201128192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -826,7 +837,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="169809792"/>
+        <c:axId val="201128192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -883,12 +894,667 @@
             <a:tailEnd type="triangle" w="sm" len="med"/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="169808256"/>
+        <c:crossAx val="201126272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:dispUnits>
           <c:builtInUnit val="thousands"/>
         </c:dispUnits>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.14127662639645783"/>
+          <c:y val="8.5030872024193349E-2"/>
+          <c:w val="0.67250205095872717"/>
+          <c:h val="0.76680080045558152"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>C++</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'stats (2)'!$P$1:$P$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'stats (2)'!$Q$1:$Q$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1027610.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>529865</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>358141.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>288920.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>293843.20000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>291028.90000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>282985.40000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>283571.3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>282319.90000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>286337.3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>289580.7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>279878.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Asembler</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'stats (2)'!$U$1:$U$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>199401.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>112519.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>87958.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>77682.100000000006</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>83998.9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>77716.7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>76650.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>77931.399999999994</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>76457</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>77357.8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>76748.2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>79700.100000000006</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="138481664"/>
+        <c:axId val="138483584"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="138481664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Liczba wątków</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="138483584"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="138483584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:minorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="horz" anchor="ctr" anchorCtr="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Czas (</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pl-PL" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>ms</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="3.6384181762111709E-2"/>
+              <c:y val="9.3104402650603449E-3"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:tailEnd type="triangle" w="sm" len="med"/>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="138481664"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:dispUnits>
+          <c:builtInUnit val="thousands"/>
+        </c:dispUnits>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>Przyśpieszenie</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL" baseline="0"/>
+              <a:t> względem c++</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.20087489063867017"/>
+          <c:y val="9.2592592592592587E-3"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.1474409448818913E-2"/>
+          <c:y val="0.19480351414406533"/>
+          <c:w val="0.76309623797025383"/>
+          <c:h val="0.68921660834062404"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz3!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>128-bit</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Arkusz3!$A$2:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz3!$B$2:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>3.9943696787700294</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.8125539265794375</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.6796724196808177</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.5350022546835924</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.2052384201763244</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.4095045155737616</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.296427815751465</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.4781045279651011</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.5406624507477904</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.3985738721090026</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.3542727739364113</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.3365570938295241</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz3!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>256-bit</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz3!$C$2:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>5.1534654383935159</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.7090781275134441</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0716959852840366</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.7192699476455964</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.4981791428221087</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.7447408343380513</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.6918827877631912</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.6387297033031616</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.6925317498724777</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.7014664326027882</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.7731269267552858</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.5116480405921697</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="44697088"/>
+        <c:axId val="44698624"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="44697088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Wątki</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="44698624"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="44698624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="horz" anchor="t" anchorCtr="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Przyśpieszenie</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="2.7777777777777779E-3"/>
+              <c:y val="0.10143700787401573"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="44697088"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -926,6 +1592,78 @@
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Wykres 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>149087</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>57978</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>397566</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>79513</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Wykres 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>234462</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>93785</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>549519</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>153867</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Wykres 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1232,8 +1970,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="R34" sqref="R34"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5312,4 +6050,4249 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X120"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="X1" sqref="X1:X12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="17" max="17" width="14.42578125" customWidth="1"/>
+    <col min="21" max="21" width="13.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>15360</v>
+      </c>
+      <c r="D1">
+        <v>8640</v>
+      </c>
+      <c r="E1">
+        <v>1029539</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1">
+        <v>1</v>
+      </c>
+      <c r="J1">
+        <v>15360</v>
+      </c>
+      <c r="K1">
+        <v>8640</v>
+      </c>
+      <c r="L1">
+        <v>188516</v>
+      </c>
+      <c r="O1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P1">
+        <v>1</v>
+      </c>
+      <c r="Q1" s="1">
+        <f>AVERAGE(E1:E10)</f>
+        <v>1027610.8</v>
+      </c>
+      <c r="S1" t="s">
+        <v>2</v>
+      </c>
+      <c r="T1">
+        <v>1</v>
+      </c>
+      <c r="U1" s="1">
+        <f>AVERAGE(L1:L10)</f>
+        <v>199401.9</v>
+      </c>
+      <c r="W1" t="s">
+        <v>4</v>
+      </c>
+      <c r="X1" s="2">
+        <f>Q1/U1</f>
+        <v>5.1534654383935159</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>15360</v>
+      </c>
+      <c r="D2">
+        <v>8640</v>
+      </c>
+      <c r="E2">
+        <v>1041691</v>
+      </c>
+      <c r="H2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>15360</v>
+      </c>
+      <c r="K2">
+        <v>8640</v>
+      </c>
+      <c r="L2">
+        <v>190196</v>
+      </c>
+      <c r="P2">
+        <v>2</v>
+      </c>
+      <c r="Q2" s="1">
+        <f>AVERAGE(E11:E20)</f>
+        <v>529865</v>
+      </c>
+      <c r="T2">
+        <v>2</v>
+      </c>
+      <c r="U2" s="1">
+        <f>AVERAGE(L11:L20)</f>
+        <v>112519.9</v>
+      </c>
+      <c r="X2" s="2">
+        <f t="shared" ref="X2:X12" si="0">Q2/U2</f>
+        <v>4.7090781275134441</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>15360</v>
+      </c>
+      <c r="D3">
+        <v>8640</v>
+      </c>
+      <c r="E3">
+        <v>1029648</v>
+      </c>
+      <c r="H3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>15360</v>
+      </c>
+      <c r="K3">
+        <v>8640</v>
+      </c>
+      <c r="L3">
+        <v>202466</v>
+      </c>
+      <c r="P3">
+        <v>3</v>
+      </c>
+      <c r="Q3" s="1">
+        <f>AVERAGE(E21:E30)</f>
+        <v>358141.9</v>
+      </c>
+      <c r="T3">
+        <v>3</v>
+      </c>
+      <c r="U3" s="1">
+        <f>AVERAGE(L21:L30)</f>
+        <v>87958.9</v>
+      </c>
+      <c r="X3" s="2">
+        <f t="shared" si="0"/>
+        <v>4.0716959852840366</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>15360</v>
+      </c>
+      <c r="D4">
+        <v>8640</v>
+      </c>
+      <c r="E4">
+        <v>1027818</v>
+      </c>
+      <c r="H4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>15360</v>
+      </c>
+      <c r="K4">
+        <v>8640</v>
+      </c>
+      <c r="L4">
+        <v>194353</v>
+      </c>
+      <c r="P4">
+        <v>4</v>
+      </c>
+      <c r="Q4" s="1">
+        <f>AVERAGE(E31:E40)</f>
+        <v>288920.7</v>
+      </c>
+      <c r="T4">
+        <v>4</v>
+      </c>
+      <c r="U4" s="1">
+        <f>AVERAGE(L31:L40)</f>
+        <v>77682.100000000006</v>
+      </c>
+      <c r="X4" s="2">
+        <f t="shared" si="0"/>
+        <v>3.7192699476455964</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>15360</v>
+      </c>
+      <c r="D5">
+        <v>8640</v>
+      </c>
+      <c r="E5">
+        <v>1032131</v>
+      </c>
+      <c r="H5" t="s">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>15360</v>
+      </c>
+      <c r="K5">
+        <v>8640</v>
+      </c>
+      <c r="L5">
+        <v>215466</v>
+      </c>
+      <c r="P5">
+        <v>5</v>
+      </c>
+      <c r="Q5" s="1">
+        <f>AVERAGE(E41:E50)</f>
+        <v>293843.20000000001</v>
+      </c>
+      <c r="T5">
+        <v>5</v>
+      </c>
+      <c r="U5" s="1">
+        <f>AVERAGE(L41:L50)</f>
+        <v>83998.9</v>
+      </c>
+      <c r="X5" s="2">
+        <f t="shared" si="0"/>
+        <v>3.4981791428221087</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>15360</v>
+      </c>
+      <c r="D6">
+        <v>8640</v>
+      </c>
+      <c r="E6">
+        <v>1028350</v>
+      </c>
+      <c r="H6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>15360</v>
+      </c>
+      <c r="K6">
+        <v>8640</v>
+      </c>
+      <c r="L6">
+        <v>215845</v>
+      </c>
+      <c r="P6">
+        <v>6</v>
+      </c>
+      <c r="Q6" s="1">
+        <f>AVERAGE(E51:E60)</f>
+        <v>291028.90000000002</v>
+      </c>
+      <c r="T6">
+        <v>6</v>
+      </c>
+      <c r="U6" s="1">
+        <f>AVERAGE(L51:L60)</f>
+        <v>77716.7</v>
+      </c>
+      <c r="X6" s="2">
+        <f t="shared" si="0"/>
+        <v>3.7447408343380513</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>15360</v>
+      </c>
+      <c r="D7">
+        <v>8640</v>
+      </c>
+      <c r="E7">
+        <v>1029562</v>
+      </c>
+      <c r="H7" t="s">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>15360</v>
+      </c>
+      <c r="K7">
+        <v>8640</v>
+      </c>
+      <c r="L7">
+        <v>197594</v>
+      </c>
+      <c r="P7">
+        <v>7</v>
+      </c>
+      <c r="Q7" s="1">
+        <f>AVERAGE(E61:E70)</f>
+        <v>282985.40000000002</v>
+      </c>
+      <c r="T7">
+        <v>7</v>
+      </c>
+      <c r="U7" s="1">
+        <f>AVERAGE(L61:L70)</f>
+        <v>76650.7</v>
+      </c>
+      <c r="X7" s="2">
+        <f t="shared" si="0"/>
+        <v>3.6918827877631912</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>15360</v>
+      </c>
+      <c r="D8">
+        <v>8640</v>
+      </c>
+      <c r="E8">
+        <v>1021581</v>
+      </c>
+      <c r="H8" t="s">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>15360</v>
+      </c>
+      <c r="K8">
+        <v>8640</v>
+      </c>
+      <c r="L8">
+        <v>198209</v>
+      </c>
+      <c r="P8">
+        <v>8</v>
+      </c>
+      <c r="Q8" s="1">
+        <f>AVERAGE(E71:E80)</f>
+        <v>283571.3</v>
+      </c>
+      <c r="T8">
+        <v>8</v>
+      </c>
+      <c r="U8" s="1">
+        <f>AVERAGE(L71:L80)</f>
+        <v>77931.399999999994</v>
+      </c>
+      <c r="X8" s="2">
+        <f t="shared" si="0"/>
+        <v>3.6387297033031616</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>15360</v>
+      </c>
+      <c r="D9">
+        <v>8640</v>
+      </c>
+      <c r="E9">
+        <v>1016175</v>
+      </c>
+      <c r="H9" t="s">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>15360</v>
+      </c>
+      <c r="K9">
+        <v>8640</v>
+      </c>
+      <c r="L9">
+        <v>201668</v>
+      </c>
+      <c r="P9">
+        <v>16</v>
+      </c>
+      <c r="Q9" s="1">
+        <f>AVERAGE(E81:E90)</f>
+        <v>282319.90000000002</v>
+      </c>
+      <c r="T9">
+        <v>16</v>
+      </c>
+      <c r="U9" s="1">
+        <f>AVERAGE(L81:L90)</f>
+        <v>76457</v>
+      </c>
+      <c r="X9" s="2">
+        <f>Q9/U9</f>
+        <v>3.6925317498724777</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>15360</v>
+      </c>
+      <c r="D10">
+        <v>8640</v>
+      </c>
+      <c r="E10">
+        <v>1019613</v>
+      </c>
+      <c r="H10" t="s">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>15360</v>
+      </c>
+      <c r="K10">
+        <v>8640</v>
+      </c>
+      <c r="L10">
+        <v>189706</v>
+      </c>
+      <c r="P10">
+        <v>32</v>
+      </c>
+      <c r="Q10" s="1">
+        <f>AVERAGE(E91:E100)</f>
+        <v>286337.3</v>
+      </c>
+      <c r="T10">
+        <v>32</v>
+      </c>
+      <c r="U10" s="1">
+        <f>AVERAGE(L91:L100)</f>
+        <v>77357.8</v>
+      </c>
+      <c r="X10" s="2">
+        <f t="shared" si="0"/>
+        <v>3.7014664326027882</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>15360</v>
+      </c>
+      <c r="D11">
+        <v>8640</v>
+      </c>
+      <c r="E11">
+        <v>538497</v>
+      </c>
+      <c r="H11" t="s">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>2</v>
+      </c>
+      <c r="J11">
+        <v>15360</v>
+      </c>
+      <c r="K11">
+        <v>8640</v>
+      </c>
+      <c r="L11">
+        <v>114860</v>
+      </c>
+      <c r="P11">
+        <v>48</v>
+      </c>
+      <c r="Q11" s="1">
+        <f>AVERAGE(E101:E110)</f>
+        <v>289580.7</v>
+      </c>
+      <c r="T11">
+        <v>48</v>
+      </c>
+      <c r="U11" s="1">
+        <f>AVERAGE(L101:L110)</f>
+        <v>76748.2</v>
+      </c>
+      <c r="X11" s="2">
+        <f t="shared" si="0"/>
+        <v>3.7731269267552858</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>15360</v>
+      </c>
+      <c r="D12">
+        <v>8640</v>
+      </c>
+      <c r="E12">
+        <v>516933</v>
+      </c>
+      <c r="H12" t="s">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>2</v>
+      </c>
+      <c r="J12">
+        <v>15360</v>
+      </c>
+      <c r="K12">
+        <v>8640</v>
+      </c>
+      <c r="L12">
+        <v>111716</v>
+      </c>
+      <c r="P12">
+        <v>64</v>
+      </c>
+      <c r="Q12" s="1">
+        <f>AVERAGE(E111:E120)</f>
+        <v>279878.7</v>
+      </c>
+      <c r="T12">
+        <v>64</v>
+      </c>
+      <c r="U12" s="1">
+        <f>AVERAGE(L111:L120)</f>
+        <v>79700.100000000006</v>
+      </c>
+      <c r="X12" s="2">
+        <f t="shared" si="0"/>
+        <v>3.5116480405921697</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>15360</v>
+      </c>
+      <c r="D13">
+        <v>8640</v>
+      </c>
+      <c r="E13">
+        <v>520009</v>
+      </c>
+      <c r="H13" t="s">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>2</v>
+      </c>
+      <c r="J13">
+        <v>15360</v>
+      </c>
+      <c r="K13">
+        <v>8640</v>
+      </c>
+      <c r="L13">
+        <v>110117</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <v>15360</v>
+      </c>
+      <c r="D14">
+        <v>8640</v>
+      </c>
+      <c r="E14">
+        <v>518877</v>
+      </c>
+      <c r="H14" t="s">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>2</v>
+      </c>
+      <c r="J14">
+        <v>15360</v>
+      </c>
+      <c r="K14">
+        <v>8640</v>
+      </c>
+      <c r="L14">
+        <v>114262</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>15360</v>
+      </c>
+      <c r="D15">
+        <v>8640</v>
+      </c>
+      <c r="E15">
+        <v>531367</v>
+      </c>
+      <c r="H15" t="s">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>2</v>
+      </c>
+      <c r="J15">
+        <v>15360</v>
+      </c>
+      <c r="K15">
+        <v>8640</v>
+      </c>
+      <c r="L15">
+        <v>117499</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>15360</v>
+      </c>
+      <c r="D16">
+        <v>8640</v>
+      </c>
+      <c r="E16">
+        <v>533113</v>
+      </c>
+      <c r="H16" t="s">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>2</v>
+      </c>
+      <c r="J16">
+        <v>15360</v>
+      </c>
+      <c r="K16">
+        <v>8640</v>
+      </c>
+      <c r="L16">
+        <v>119583</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <v>15360</v>
+      </c>
+      <c r="D17">
+        <v>8640</v>
+      </c>
+      <c r="E17">
+        <v>536221</v>
+      </c>
+      <c r="H17" t="s">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>2</v>
+      </c>
+      <c r="J17">
+        <v>15360</v>
+      </c>
+      <c r="K17">
+        <v>8640</v>
+      </c>
+      <c r="L17">
+        <v>116023</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <v>15360</v>
+      </c>
+      <c r="D18">
+        <v>8640</v>
+      </c>
+      <c r="E18">
+        <v>536369</v>
+      </c>
+      <c r="H18" t="s">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>2</v>
+      </c>
+      <c r="J18">
+        <v>15360</v>
+      </c>
+      <c r="K18">
+        <v>8640</v>
+      </c>
+      <c r="L18">
+        <v>107624</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>15360</v>
+      </c>
+      <c r="D19">
+        <v>8640</v>
+      </c>
+      <c r="E19">
+        <v>533483</v>
+      </c>
+      <c r="H19" t="s">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>2</v>
+      </c>
+      <c r="J19">
+        <v>15360</v>
+      </c>
+      <c r="K19">
+        <v>8640</v>
+      </c>
+      <c r="L19">
+        <v>105631</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <v>15360</v>
+      </c>
+      <c r="D20">
+        <v>8640</v>
+      </c>
+      <c r="E20">
+        <v>533781</v>
+      </c>
+      <c r="H20" t="s">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>2</v>
+      </c>
+      <c r="J20">
+        <v>15360</v>
+      </c>
+      <c r="K20">
+        <v>8640</v>
+      </c>
+      <c r="L20">
+        <v>107884</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21">
+        <v>15360</v>
+      </c>
+      <c r="D21">
+        <v>8640</v>
+      </c>
+      <c r="E21">
+        <v>348567</v>
+      </c>
+      <c r="H21" t="s">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>3</v>
+      </c>
+      <c r="J21">
+        <v>15360</v>
+      </c>
+      <c r="K21">
+        <v>8640</v>
+      </c>
+      <c r="L21">
+        <v>91804</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22">
+        <v>15360</v>
+      </c>
+      <c r="D22">
+        <v>8640</v>
+      </c>
+      <c r="E22">
+        <v>349756</v>
+      </c>
+      <c r="H22" t="s">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>3</v>
+      </c>
+      <c r="J22">
+        <v>15360</v>
+      </c>
+      <c r="K22">
+        <v>8640</v>
+      </c>
+      <c r="L22">
+        <v>88540</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="C23">
+        <v>15360</v>
+      </c>
+      <c r="D23">
+        <v>8640</v>
+      </c>
+      <c r="E23">
+        <v>361650</v>
+      </c>
+      <c r="H23" t="s">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>3</v>
+      </c>
+      <c r="J23">
+        <v>15360</v>
+      </c>
+      <c r="K23">
+        <v>8640</v>
+      </c>
+      <c r="L23">
+        <v>89095</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="C24">
+        <v>15360</v>
+      </c>
+      <c r="D24">
+        <v>8640</v>
+      </c>
+      <c r="E24">
+        <v>355705</v>
+      </c>
+      <c r="H24" t="s">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>3</v>
+      </c>
+      <c r="J24">
+        <v>15360</v>
+      </c>
+      <c r="K24">
+        <v>8640</v>
+      </c>
+      <c r="L24">
+        <v>90517</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25">
+        <v>3</v>
+      </c>
+      <c r="C25">
+        <v>15360</v>
+      </c>
+      <c r="D25">
+        <v>8640</v>
+      </c>
+      <c r="E25">
+        <v>351556</v>
+      </c>
+      <c r="H25" t="s">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>3</v>
+      </c>
+      <c r="J25">
+        <v>15360</v>
+      </c>
+      <c r="K25">
+        <v>8640</v>
+      </c>
+      <c r="L25">
+        <v>87467</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26">
+        <v>15360</v>
+      </c>
+      <c r="D26">
+        <v>8640</v>
+      </c>
+      <c r="E26">
+        <v>357430</v>
+      </c>
+      <c r="H26" t="s">
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <v>3</v>
+      </c>
+      <c r="J26">
+        <v>15360</v>
+      </c>
+      <c r="K26">
+        <v>8640</v>
+      </c>
+      <c r="L26">
+        <v>84195</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27">
+        <v>3</v>
+      </c>
+      <c r="C27">
+        <v>15360</v>
+      </c>
+      <c r="D27">
+        <v>8640</v>
+      </c>
+      <c r="E27">
+        <v>353938</v>
+      </c>
+      <c r="H27" t="s">
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <v>3</v>
+      </c>
+      <c r="J27">
+        <v>15360</v>
+      </c>
+      <c r="K27">
+        <v>8640</v>
+      </c>
+      <c r="L27">
+        <v>86140</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28">
+        <v>15360</v>
+      </c>
+      <c r="D28">
+        <v>8640</v>
+      </c>
+      <c r="E28">
+        <v>362281</v>
+      </c>
+      <c r="H28" t="s">
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <v>3</v>
+      </c>
+      <c r="J28">
+        <v>15360</v>
+      </c>
+      <c r="K28">
+        <v>8640</v>
+      </c>
+      <c r="L28">
+        <v>88116</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29">
+        <v>3</v>
+      </c>
+      <c r="C29">
+        <v>15360</v>
+      </c>
+      <c r="D29">
+        <v>8640</v>
+      </c>
+      <c r="E29">
+        <v>371177</v>
+      </c>
+      <c r="H29" t="s">
+        <v>1</v>
+      </c>
+      <c r="I29">
+        <v>3</v>
+      </c>
+      <c r="J29">
+        <v>15360</v>
+      </c>
+      <c r="K29">
+        <v>8640</v>
+      </c>
+      <c r="L29">
+        <v>85577</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30">
+        <v>3</v>
+      </c>
+      <c r="C30">
+        <v>15360</v>
+      </c>
+      <c r="D30">
+        <v>8640</v>
+      </c>
+      <c r="E30">
+        <v>369359</v>
+      </c>
+      <c r="H30" t="s">
+        <v>1</v>
+      </c>
+      <c r="I30">
+        <v>3</v>
+      </c>
+      <c r="J30">
+        <v>15360</v>
+      </c>
+      <c r="K30">
+        <v>8640</v>
+      </c>
+      <c r="L30">
+        <v>88138</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31">
+        <v>4</v>
+      </c>
+      <c r="C31">
+        <v>15360</v>
+      </c>
+      <c r="D31">
+        <v>8640</v>
+      </c>
+      <c r="E31">
+        <v>271048</v>
+      </c>
+      <c r="H31" t="s">
+        <v>1</v>
+      </c>
+      <c r="I31">
+        <v>4</v>
+      </c>
+      <c r="J31">
+        <v>15360</v>
+      </c>
+      <c r="K31">
+        <v>8640</v>
+      </c>
+      <c r="L31">
+        <v>77546</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32">
+        <v>4</v>
+      </c>
+      <c r="C32">
+        <v>15360</v>
+      </c>
+      <c r="D32">
+        <v>8640</v>
+      </c>
+      <c r="E32">
+        <v>286890</v>
+      </c>
+      <c r="H32" t="s">
+        <v>1</v>
+      </c>
+      <c r="I32">
+        <v>4</v>
+      </c>
+      <c r="J32">
+        <v>15360</v>
+      </c>
+      <c r="K32">
+        <v>8640</v>
+      </c>
+      <c r="L32">
+        <v>70025</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33">
+        <v>4</v>
+      </c>
+      <c r="C33">
+        <v>15360</v>
+      </c>
+      <c r="D33">
+        <v>8640</v>
+      </c>
+      <c r="E33">
+        <v>294189</v>
+      </c>
+      <c r="H33" t="s">
+        <v>1</v>
+      </c>
+      <c r="I33">
+        <v>4</v>
+      </c>
+      <c r="J33">
+        <v>15360</v>
+      </c>
+      <c r="K33">
+        <v>8640</v>
+      </c>
+      <c r="L33">
+        <v>76767</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34">
+        <v>4</v>
+      </c>
+      <c r="C34">
+        <v>15360</v>
+      </c>
+      <c r="D34">
+        <v>8640</v>
+      </c>
+      <c r="E34">
+        <v>284281</v>
+      </c>
+      <c r="H34" t="s">
+        <v>1</v>
+      </c>
+      <c r="I34">
+        <v>4</v>
+      </c>
+      <c r="J34">
+        <v>15360</v>
+      </c>
+      <c r="K34">
+        <v>8640</v>
+      </c>
+      <c r="L34">
+        <v>76132</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35">
+        <v>4</v>
+      </c>
+      <c r="C35">
+        <v>15360</v>
+      </c>
+      <c r="D35">
+        <v>8640</v>
+      </c>
+      <c r="E35">
+        <v>288503</v>
+      </c>
+      <c r="H35" t="s">
+        <v>1</v>
+      </c>
+      <c r="I35">
+        <v>4</v>
+      </c>
+      <c r="J35">
+        <v>15360</v>
+      </c>
+      <c r="K35">
+        <v>8640</v>
+      </c>
+      <c r="L35">
+        <v>80158</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36">
+        <v>4</v>
+      </c>
+      <c r="C36">
+        <v>15360</v>
+      </c>
+      <c r="D36">
+        <v>8640</v>
+      </c>
+      <c r="E36">
+        <v>307278</v>
+      </c>
+      <c r="H36" t="s">
+        <v>1</v>
+      </c>
+      <c r="I36">
+        <v>4</v>
+      </c>
+      <c r="J36">
+        <v>15360</v>
+      </c>
+      <c r="K36">
+        <v>8640</v>
+      </c>
+      <c r="L36">
+        <v>84707</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37">
+        <v>4</v>
+      </c>
+      <c r="C37">
+        <v>15360</v>
+      </c>
+      <c r="D37">
+        <v>8640</v>
+      </c>
+      <c r="E37">
+        <v>294508</v>
+      </c>
+      <c r="H37" t="s">
+        <v>1</v>
+      </c>
+      <c r="I37">
+        <v>4</v>
+      </c>
+      <c r="J37">
+        <v>15360</v>
+      </c>
+      <c r="K37">
+        <v>8640</v>
+      </c>
+      <c r="L37">
+        <v>82859</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38">
+        <v>4</v>
+      </c>
+      <c r="C38">
+        <v>15360</v>
+      </c>
+      <c r="D38">
+        <v>8640</v>
+      </c>
+      <c r="E38">
+        <v>292380</v>
+      </c>
+      <c r="H38" t="s">
+        <v>1</v>
+      </c>
+      <c r="I38">
+        <v>4</v>
+      </c>
+      <c r="J38">
+        <v>15360</v>
+      </c>
+      <c r="K38">
+        <v>8640</v>
+      </c>
+      <c r="L38">
+        <v>72609</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39">
+        <v>4</v>
+      </c>
+      <c r="C39">
+        <v>15360</v>
+      </c>
+      <c r="D39">
+        <v>8640</v>
+      </c>
+      <c r="E39">
+        <v>278938</v>
+      </c>
+      <c r="H39" t="s">
+        <v>1</v>
+      </c>
+      <c r="I39">
+        <v>4</v>
+      </c>
+      <c r="J39">
+        <v>15360</v>
+      </c>
+      <c r="K39">
+        <v>8640</v>
+      </c>
+      <c r="L39">
+        <v>78775</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40">
+        <v>4</v>
+      </c>
+      <c r="C40">
+        <v>15360</v>
+      </c>
+      <c r="D40">
+        <v>8640</v>
+      </c>
+      <c r="E40">
+        <v>291192</v>
+      </c>
+      <c r="H40" t="s">
+        <v>1</v>
+      </c>
+      <c r="I40">
+        <v>4</v>
+      </c>
+      <c r="J40">
+        <v>15360</v>
+      </c>
+      <c r="K40">
+        <v>8640</v>
+      </c>
+      <c r="L40">
+        <v>77243</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41">
+        <v>5</v>
+      </c>
+      <c r="C41">
+        <v>15360</v>
+      </c>
+      <c r="D41">
+        <v>8640</v>
+      </c>
+      <c r="E41">
+        <v>285918</v>
+      </c>
+      <c r="H41" t="s">
+        <v>1</v>
+      </c>
+      <c r="I41">
+        <v>5</v>
+      </c>
+      <c r="J41">
+        <v>15360</v>
+      </c>
+      <c r="K41">
+        <v>8640</v>
+      </c>
+      <c r="L41">
+        <v>84698</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42">
+        <v>5</v>
+      </c>
+      <c r="C42">
+        <v>15360</v>
+      </c>
+      <c r="D42">
+        <v>8640</v>
+      </c>
+      <c r="E42">
+        <v>316333</v>
+      </c>
+      <c r="H42" t="s">
+        <v>1</v>
+      </c>
+      <c r="I42">
+        <v>5</v>
+      </c>
+      <c r="J42">
+        <v>15360</v>
+      </c>
+      <c r="K42">
+        <v>8640</v>
+      </c>
+      <c r="L42">
+        <v>81314</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>0</v>
+      </c>
+      <c r="B43">
+        <v>5</v>
+      </c>
+      <c r="C43">
+        <v>15360</v>
+      </c>
+      <c r="D43">
+        <v>8640</v>
+      </c>
+      <c r="E43">
+        <v>295702</v>
+      </c>
+      <c r="H43" t="s">
+        <v>1</v>
+      </c>
+      <c r="I43">
+        <v>5</v>
+      </c>
+      <c r="J43">
+        <v>15360</v>
+      </c>
+      <c r="K43">
+        <v>8640</v>
+      </c>
+      <c r="L43">
+        <v>81115</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>0</v>
+      </c>
+      <c r="B44">
+        <v>5</v>
+      </c>
+      <c r="C44">
+        <v>15360</v>
+      </c>
+      <c r="D44">
+        <v>8640</v>
+      </c>
+      <c r="E44">
+        <v>285955</v>
+      </c>
+      <c r="H44" t="s">
+        <v>1</v>
+      </c>
+      <c r="I44">
+        <v>5</v>
+      </c>
+      <c r="J44">
+        <v>15360</v>
+      </c>
+      <c r="K44">
+        <v>8640</v>
+      </c>
+      <c r="L44">
+        <v>82664</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>0</v>
+      </c>
+      <c r="B45">
+        <v>5</v>
+      </c>
+      <c r="C45">
+        <v>15360</v>
+      </c>
+      <c r="D45">
+        <v>8640</v>
+      </c>
+      <c r="E45">
+        <v>283000</v>
+      </c>
+      <c r="H45" t="s">
+        <v>1</v>
+      </c>
+      <c r="I45">
+        <v>5</v>
+      </c>
+      <c r="J45">
+        <v>15360</v>
+      </c>
+      <c r="K45">
+        <v>8640</v>
+      </c>
+      <c r="L45">
+        <v>85735</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B46">
+        <v>5</v>
+      </c>
+      <c r="C46">
+        <v>15360</v>
+      </c>
+      <c r="D46">
+        <v>8640</v>
+      </c>
+      <c r="E46">
+        <v>275958</v>
+      </c>
+      <c r="H46" t="s">
+        <v>1</v>
+      </c>
+      <c r="I46">
+        <v>5</v>
+      </c>
+      <c r="J46">
+        <v>15360</v>
+      </c>
+      <c r="K46">
+        <v>8640</v>
+      </c>
+      <c r="L46">
+        <v>82699</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47">
+        <v>5</v>
+      </c>
+      <c r="C47">
+        <v>15360</v>
+      </c>
+      <c r="D47">
+        <v>8640</v>
+      </c>
+      <c r="E47">
+        <v>285140</v>
+      </c>
+      <c r="H47" t="s">
+        <v>1</v>
+      </c>
+      <c r="I47">
+        <v>5</v>
+      </c>
+      <c r="J47">
+        <v>15360</v>
+      </c>
+      <c r="K47">
+        <v>8640</v>
+      </c>
+      <c r="L47">
+        <v>85221</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>0</v>
+      </c>
+      <c r="B48">
+        <v>5</v>
+      </c>
+      <c r="C48">
+        <v>15360</v>
+      </c>
+      <c r="D48">
+        <v>8640</v>
+      </c>
+      <c r="E48">
+        <v>293374</v>
+      </c>
+      <c r="H48" t="s">
+        <v>1</v>
+      </c>
+      <c r="I48">
+        <v>5</v>
+      </c>
+      <c r="J48">
+        <v>15360</v>
+      </c>
+      <c r="K48">
+        <v>8640</v>
+      </c>
+      <c r="L48">
+        <v>84727</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>0</v>
+      </c>
+      <c r="B49">
+        <v>5</v>
+      </c>
+      <c r="C49">
+        <v>15360</v>
+      </c>
+      <c r="D49">
+        <v>8640</v>
+      </c>
+      <c r="E49">
+        <v>324601</v>
+      </c>
+      <c r="H49" t="s">
+        <v>1</v>
+      </c>
+      <c r="I49">
+        <v>5</v>
+      </c>
+      <c r="J49">
+        <v>15360</v>
+      </c>
+      <c r="K49">
+        <v>8640</v>
+      </c>
+      <c r="L49">
+        <v>87928</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>0</v>
+      </c>
+      <c r="B50">
+        <v>5</v>
+      </c>
+      <c r="C50">
+        <v>15360</v>
+      </c>
+      <c r="D50">
+        <v>8640</v>
+      </c>
+      <c r="E50">
+        <v>292451</v>
+      </c>
+      <c r="H50" t="s">
+        <v>1</v>
+      </c>
+      <c r="I50">
+        <v>5</v>
+      </c>
+      <c r="J50">
+        <v>15360</v>
+      </c>
+      <c r="K50">
+        <v>8640</v>
+      </c>
+      <c r="L50">
+        <v>83888</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>0</v>
+      </c>
+      <c r="B51">
+        <v>6</v>
+      </c>
+      <c r="C51">
+        <v>15360</v>
+      </c>
+      <c r="D51">
+        <v>8640</v>
+      </c>
+      <c r="E51">
+        <v>280936</v>
+      </c>
+      <c r="H51" t="s">
+        <v>1</v>
+      </c>
+      <c r="I51">
+        <v>6</v>
+      </c>
+      <c r="J51">
+        <v>15360</v>
+      </c>
+      <c r="K51">
+        <v>8640</v>
+      </c>
+      <c r="L51">
+        <v>77903</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>0</v>
+      </c>
+      <c r="B52">
+        <v>6</v>
+      </c>
+      <c r="C52">
+        <v>15360</v>
+      </c>
+      <c r="D52">
+        <v>8640</v>
+      </c>
+      <c r="E52">
+        <v>285487</v>
+      </c>
+      <c r="H52" t="s">
+        <v>1</v>
+      </c>
+      <c r="I52">
+        <v>6</v>
+      </c>
+      <c r="J52">
+        <v>15360</v>
+      </c>
+      <c r="K52">
+        <v>8640</v>
+      </c>
+      <c r="L52">
+        <v>77452</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>0</v>
+      </c>
+      <c r="B53">
+        <v>6</v>
+      </c>
+      <c r="C53">
+        <v>15360</v>
+      </c>
+      <c r="D53">
+        <v>8640</v>
+      </c>
+      <c r="E53">
+        <v>295795</v>
+      </c>
+      <c r="H53" t="s">
+        <v>1</v>
+      </c>
+      <c r="I53">
+        <v>6</v>
+      </c>
+      <c r="J53">
+        <v>15360</v>
+      </c>
+      <c r="K53">
+        <v>8640</v>
+      </c>
+      <c r="L53">
+        <v>74427</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>0</v>
+      </c>
+      <c r="B54">
+        <v>6</v>
+      </c>
+      <c r="C54">
+        <v>15360</v>
+      </c>
+      <c r="D54">
+        <v>8640</v>
+      </c>
+      <c r="E54">
+        <v>296049</v>
+      </c>
+      <c r="H54" t="s">
+        <v>1</v>
+      </c>
+      <c r="I54">
+        <v>6</v>
+      </c>
+      <c r="J54">
+        <v>15360</v>
+      </c>
+      <c r="K54">
+        <v>8640</v>
+      </c>
+      <c r="L54">
+        <v>78317</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>0</v>
+      </c>
+      <c r="B55">
+        <v>6</v>
+      </c>
+      <c r="C55">
+        <v>15360</v>
+      </c>
+      <c r="D55">
+        <v>8640</v>
+      </c>
+      <c r="E55">
+        <v>287769</v>
+      </c>
+      <c r="H55" t="s">
+        <v>1</v>
+      </c>
+      <c r="I55">
+        <v>6</v>
+      </c>
+      <c r="J55">
+        <v>15360</v>
+      </c>
+      <c r="K55">
+        <v>8640</v>
+      </c>
+      <c r="L55">
+        <v>74862</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>0</v>
+      </c>
+      <c r="B56">
+        <v>6</v>
+      </c>
+      <c r="C56">
+        <v>15360</v>
+      </c>
+      <c r="D56">
+        <v>8640</v>
+      </c>
+      <c r="E56">
+        <v>290522</v>
+      </c>
+      <c r="H56" t="s">
+        <v>1</v>
+      </c>
+      <c r="I56">
+        <v>6</v>
+      </c>
+      <c r="J56">
+        <v>15360</v>
+      </c>
+      <c r="K56">
+        <v>8640</v>
+      </c>
+      <c r="L56">
+        <v>80732</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>0</v>
+      </c>
+      <c r="B57">
+        <v>6</v>
+      </c>
+      <c r="C57">
+        <v>15360</v>
+      </c>
+      <c r="D57">
+        <v>8640</v>
+      </c>
+      <c r="E57">
+        <v>283265</v>
+      </c>
+      <c r="H57" t="s">
+        <v>1</v>
+      </c>
+      <c r="I57">
+        <v>6</v>
+      </c>
+      <c r="J57">
+        <v>15360</v>
+      </c>
+      <c r="K57">
+        <v>8640</v>
+      </c>
+      <c r="L57">
+        <v>78317</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>0</v>
+      </c>
+      <c r="B58">
+        <v>6</v>
+      </c>
+      <c r="C58">
+        <v>15360</v>
+      </c>
+      <c r="D58">
+        <v>8640</v>
+      </c>
+      <c r="E58">
+        <v>293183</v>
+      </c>
+      <c r="H58" t="s">
+        <v>1</v>
+      </c>
+      <c r="I58">
+        <v>6</v>
+      </c>
+      <c r="J58">
+        <v>15360</v>
+      </c>
+      <c r="K58">
+        <v>8640</v>
+      </c>
+      <c r="L58">
+        <v>75140</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>0</v>
+      </c>
+      <c r="B59">
+        <v>6</v>
+      </c>
+      <c r="C59">
+        <v>15360</v>
+      </c>
+      <c r="D59">
+        <v>8640</v>
+      </c>
+      <c r="E59">
+        <v>297496</v>
+      </c>
+      <c r="H59" t="s">
+        <v>1</v>
+      </c>
+      <c r="I59">
+        <v>6</v>
+      </c>
+      <c r="J59">
+        <v>15360</v>
+      </c>
+      <c r="K59">
+        <v>8640</v>
+      </c>
+      <c r="L59">
+        <v>78686</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>0</v>
+      </c>
+      <c r="B60">
+        <v>6</v>
+      </c>
+      <c r="C60">
+        <v>15360</v>
+      </c>
+      <c r="D60">
+        <v>8640</v>
+      </c>
+      <c r="E60">
+        <v>299787</v>
+      </c>
+      <c r="H60" t="s">
+        <v>1</v>
+      </c>
+      <c r="I60">
+        <v>6</v>
+      </c>
+      <c r="J60">
+        <v>15360</v>
+      </c>
+      <c r="K60">
+        <v>8640</v>
+      </c>
+      <c r="L60">
+        <v>81331</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>0</v>
+      </c>
+      <c r="B61">
+        <v>7</v>
+      </c>
+      <c r="C61">
+        <v>15360</v>
+      </c>
+      <c r="D61">
+        <v>8640</v>
+      </c>
+      <c r="E61">
+        <v>284129</v>
+      </c>
+      <c r="H61" t="s">
+        <v>1</v>
+      </c>
+      <c r="I61">
+        <v>7</v>
+      </c>
+      <c r="J61">
+        <v>15360</v>
+      </c>
+      <c r="K61">
+        <v>8640</v>
+      </c>
+      <c r="L61">
+        <v>80551</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>0</v>
+      </c>
+      <c r="B62">
+        <v>7</v>
+      </c>
+      <c r="C62">
+        <v>15360</v>
+      </c>
+      <c r="D62">
+        <v>8640</v>
+      </c>
+      <c r="E62">
+        <v>276391</v>
+      </c>
+      <c r="H62" t="s">
+        <v>1</v>
+      </c>
+      <c r="I62">
+        <v>7</v>
+      </c>
+      <c r="J62">
+        <v>15360</v>
+      </c>
+      <c r="K62">
+        <v>8640</v>
+      </c>
+      <c r="L62">
+        <v>79691</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>0</v>
+      </c>
+      <c r="B63">
+        <v>7</v>
+      </c>
+      <c r="C63">
+        <v>15360</v>
+      </c>
+      <c r="D63">
+        <v>8640</v>
+      </c>
+      <c r="E63">
+        <v>284795</v>
+      </c>
+      <c r="H63" t="s">
+        <v>1</v>
+      </c>
+      <c r="I63">
+        <v>7</v>
+      </c>
+      <c r="J63">
+        <v>15360</v>
+      </c>
+      <c r="K63">
+        <v>8640</v>
+      </c>
+      <c r="L63">
+        <v>80211</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>0</v>
+      </c>
+      <c r="B64">
+        <v>7</v>
+      </c>
+      <c r="C64">
+        <v>15360</v>
+      </c>
+      <c r="D64">
+        <v>8640</v>
+      </c>
+      <c r="E64">
+        <v>277773</v>
+      </c>
+      <c r="H64" t="s">
+        <v>1</v>
+      </c>
+      <c r="I64">
+        <v>7</v>
+      </c>
+      <c r="J64">
+        <v>15360</v>
+      </c>
+      <c r="K64">
+        <v>8640</v>
+      </c>
+      <c r="L64">
+        <v>79435</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>0</v>
+      </c>
+      <c r="B65">
+        <v>7</v>
+      </c>
+      <c r="C65">
+        <v>15360</v>
+      </c>
+      <c r="D65">
+        <v>8640</v>
+      </c>
+      <c r="E65">
+        <v>282324</v>
+      </c>
+      <c r="H65" t="s">
+        <v>1</v>
+      </c>
+      <c r="I65">
+        <v>7</v>
+      </c>
+      <c r="J65">
+        <v>15360</v>
+      </c>
+      <c r="K65">
+        <v>8640</v>
+      </c>
+      <c r="L65">
+        <v>74033</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>0</v>
+      </c>
+      <c r="B66">
+        <v>7</v>
+      </c>
+      <c r="C66">
+        <v>15360</v>
+      </c>
+      <c r="D66">
+        <v>8640</v>
+      </c>
+      <c r="E66">
+        <v>288182</v>
+      </c>
+      <c r="H66" t="s">
+        <v>1</v>
+      </c>
+      <c r="I66">
+        <v>7</v>
+      </c>
+      <c r="J66">
+        <v>15360</v>
+      </c>
+      <c r="K66">
+        <v>8640</v>
+      </c>
+      <c r="L66">
+        <v>76126</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>0</v>
+      </c>
+      <c r="B67">
+        <v>7</v>
+      </c>
+      <c r="C67">
+        <v>15360</v>
+      </c>
+      <c r="D67">
+        <v>8640</v>
+      </c>
+      <c r="E67">
+        <v>292023</v>
+      </c>
+      <c r="H67" t="s">
+        <v>1</v>
+      </c>
+      <c r="I67">
+        <v>7</v>
+      </c>
+      <c r="J67">
+        <v>15360</v>
+      </c>
+      <c r="K67">
+        <v>8640</v>
+      </c>
+      <c r="L67">
+        <v>73040</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>0</v>
+      </c>
+      <c r="B68">
+        <v>7</v>
+      </c>
+      <c r="C68">
+        <v>15360</v>
+      </c>
+      <c r="D68">
+        <v>8640</v>
+      </c>
+      <c r="E68">
+        <v>272567</v>
+      </c>
+      <c r="H68" t="s">
+        <v>1</v>
+      </c>
+      <c r="I68">
+        <v>7</v>
+      </c>
+      <c r="J68">
+        <v>15360</v>
+      </c>
+      <c r="K68">
+        <v>8640</v>
+      </c>
+      <c r="L68">
+        <v>74134</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>0</v>
+      </c>
+      <c r="B69">
+        <v>7</v>
+      </c>
+      <c r="C69">
+        <v>15360</v>
+      </c>
+      <c r="D69">
+        <v>8640</v>
+      </c>
+      <c r="E69">
+        <v>284423</v>
+      </c>
+      <c r="H69" t="s">
+        <v>1</v>
+      </c>
+      <c r="I69">
+        <v>7</v>
+      </c>
+      <c r="J69">
+        <v>15360</v>
+      </c>
+      <c r="K69">
+        <v>8640</v>
+      </c>
+      <c r="L69">
+        <v>72422</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>0</v>
+      </c>
+      <c r="B70">
+        <v>7</v>
+      </c>
+      <c r="C70">
+        <v>15360</v>
+      </c>
+      <c r="D70">
+        <v>8640</v>
+      </c>
+      <c r="E70">
+        <v>287247</v>
+      </c>
+      <c r="H70" t="s">
+        <v>1</v>
+      </c>
+      <c r="I70">
+        <v>7</v>
+      </c>
+      <c r="J70">
+        <v>15360</v>
+      </c>
+      <c r="K70">
+        <v>8640</v>
+      </c>
+      <c r="L70">
+        <v>76864</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>0</v>
+      </c>
+      <c r="B71">
+        <v>8</v>
+      </c>
+      <c r="C71">
+        <v>15360</v>
+      </c>
+      <c r="D71">
+        <v>8640</v>
+      </c>
+      <c r="E71">
+        <v>279762</v>
+      </c>
+      <c r="H71" t="s">
+        <v>1</v>
+      </c>
+      <c r="I71">
+        <v>8</v>
+      </c>
+      <c r="J71">
+        <v>15360</v>
+      </c>
+      <c r="K71">
+        <v>8640</v>
+      </c>
+      <c r="L71">
+        <v>78314</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B72">
+        <v>8</v>
+      </c>
+      <c r="C72">
+        <v>15360</v>
+      </c>
+      <c r="D72">
+        <v>8640</v>
+      </c>
+      <c r="E72">
+        <v>276324</v>
+      </c>
+      <c r="H72" t="s">
+        <v>1</v>
+      </c>
+      <c r="I72">
+        <v>8</v>
+      </c>
+      <c r="J72">
+        <v>15360</v>
+      </c>
+      <c r="K72">
+        <v>8640</v>
+      </c>
+      <c r="L72">
+        <v>78595</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>0</v>
+      </c>
+      <c r="B73">
+        <v>8</v>
+      </c>
+      <c r="C73">
+        <v>15360</v>
+      </c>
+      <c r="D73">
+        <v>8640</v>
+      </c>
+      <c r="E73">
+        <v>296383</v>
+      </c>
+      <c r="H73" t="s">
+        <v>1</v>
+      </c>
+      <c r="I73">
+        <v>8</v>
+      </c>
+      <c r="J73">
+        <v>15360</v>
+      </c>
+      <c r="K73">
+        <v>8640</v>
+      </c>
+      <c r="L73">
+        <v>71100</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>0</v>
+      </c>
+      <c r="B74">
+        <v>8</v>
+      </c>
+      <c r="C74">
+        <v>15360</v>
+      </c>
+      <c r="D74">
+        <v>8640</v>
+      </c>
+      <c r="E74">
+        <v>283169</v>
+      </c>
+      <c r="H74" t="s">
+        <v>1</v>
+      </c>
+      <c r="I74">
+        <v>8</v>
+      </c>
+      <c r="J74">
+        <v>15360</v>
+      </c>
+      <c r="K74">
+        <v>8640</v>
+      </c>
+      <c r="L74">
+        <v>80357</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B75">
+        <v>8</v>
+      </c>
+      <c r="C75">
+        <v>15360</v>
+      </c>
+      <c r="D75">
+        <v>8640</v>
+      </c>
+      <c r="E75">
+        <v>280013</v>
+      </c>
+      <c r="H75" t="s">
+        <v>1</v>
+      </c>
+      <c r="I75">
+        <v>8</v>
+      </c>
+      <c r="J75">
+        <v>15360</v>
+      </c>
+      <c r="K75">
+        <v>8640</v>
+      </c>
+      <c r="L75">
+        <v>73179</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B76">
+        <v>8</v>
+      </c>
+      <c r="C76">
+        <v>15360</v>
+      </c>
+      <c r="D76">
+        <v>8640</v>
+      </c>
+      <c r="E76">
+        <v>277962</v>
+      </c>
+      <c r="H76" t="s">
+        <v>1</v>
+      </c>
+      <c r="I76">
+        <v>8</v>
+      </c>
+      <c r="J76">
+        <v>15360</v>
+      </c>
+      <c r="K76">
+        <v>8640</v>
+      </c>
+      <c r="L76">
+        <v>84220</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>0</v>
+      </c>
+      <c r="B77">
+        <v>8</v>
+      </c>
+      <c r="C77">
+        <v>15360</v>
+      </c>
+      <c r="D77">
+        <v>8640</v>
+      </c>
+      <c r="E77">
+        <v>288273</v>
+      </c>
+      <c r="H77" t="s">
+        <v>1</v>
+      </c>
+      <c r="I77">
+        <v>8</v>
+      </c>
+      <c r="J77">
+        <v>15360</v>
+      </c>
+      <c r="K77">
+        <v>8640</v>
+      </c>
+      <c r="L77">
+        <v>79557</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>0</v>
+      </c>
+      <c r="B78">
+        <v>8</v>
+      </c>
+      <c r="C78">
+        <v>15360</v>
+      </c>
+      <c r="D78">
+        <v>8640</v>
+      </c>
+      <c r="E78">
+        <v>279873</v>
+      </c>
+      <c r="H78" t="s">
+        <v>1</v>
+      </c>
+      <c r="I78">
+        <v>8</v>
+      </c>
+      <c r="J78">
+        <v>15360</v>
+      </c>
+      <c r="K78">
+        <v>8640</v>
+      </c>
+      <c r="L78">
+        <v>74161</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>0</v>
+      </c>
+      <c r="B79">
+        <v>8</v>
+      </c>
+      <c r="C79">
+        <v>15360</v>
+      </c>
+      <c r="D79">
+        <v>8640</v>
+      </c>
+      <c r="E79">
+        <v>292069</v>
+      </c>
+      <c r="H79" t="s">
+        <v>1</v>
+      </c>
+      <c r="I79">
+        <v>8</v>
+      </c>
+      <c r="J79">
+        <v>15360</v>
+      </c>
+      <c r="K79">
+        <v>8640</v>
+      </c>
+      <c r="L79">
+        <v>75225</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B80">
+        <v>8</v>
+      </c>
+      <c r="C80">
+        <v>15360</v>
+      </c>
+      <c r="D80">
+        <v>8640</v>
+      </c>
+      <c r="E80">
+        <v>281885</v>
+      </c>
+      <c r="H80" t="s">
+        <v>1</v>
+      </c>
+      <c r="I80">
+        <v>8</v>
+      </c>
+      <c r="J80">
+        <v>15360</v>
+      </c>
+      <c r="K80">
+        <v>8640</v>
+      </c>
+      <c r="L80">
+        <v>84606</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B81">
+        <v>16</v>
+      </c>
+      <c r="C81">
+        <v>15360</v>
+      </c>
+      <c r="D81">
+        <v>8640</v>
+      </c>
+      <c r="E81">
+        <v>274235</v>
+      </c>
+      <c r="H81" t="s">
+        <v>1</v>
+      </c>
+      <c r="I81">
+        <v>16</v>
+      </c>
+      <c r="J81">
+        <v>15360</v>
+      </c>
+      <c r="K81">
+        <v>8640</v>
+      </c>
+      <c r="L81">
+        <v>70614</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>0</v>
+      </c>
+      <c r="B82">
+        <v>16</v>
+      </c>
+      <c r="C82">
+        <v>15360</v>
+      </c>
+      <c r="D82">
+        <v>8640</v>
+      </c>
+      <c r="E82">
+        <v>270171</v>
+      </c>
+      <c r="H82" t="s">
+        <v>1</v>
+      </c>
+      <c r="I82">
+        <v>16</v>
+      </c>
+      <c r="J82">
+        <v>15360</v>
+      </c>
+      <c r="K82">
+        <v>8640</v>
+      </c>
+      <c r="L82">
+        <v>72820</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B83">
+        <v>16</v>
+      </c>
+      <c r="C83">
+        <v>15360</v>
+      </c>
+      <c r="D83">
+        <v>8640</v>
+      </c>
+      <c r="E83">
+        <v>267603</v>
+      </c>
+      <c r="H83" t="s">
+        <v>1</v>
+      </c>
+      <c r="I83">
+        <v>16</v>
+      </c>
+      <c r="J83">
+        <v>15360</v>
+      </c>
+      <c r="K83">
+        <v>8640</v>
+      </c>
+      <c r="L83">
+        <v>77997</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>0</v>
+      </c>
+      <c r="B84">
+        <v>16</v>
+      </c>
+      <c r="C84">
+        <v>15360</v>
+      </c>
+      <c r="D84">
+        <v>8640</v>
+      </c>
+      <c r="E84">
+        <v>274612</v>
+      </c>
+      <c r="H84" t="s">
+        <v>1</v>
+      </c>
+      <c r="I84">
+        <v>16</v>
+      </c>
+      <c r="J84">
+        <v>15360</v>
+      </c>
+      <c r="K84">
+        <v>8640</v>
+      </c>
+      <c r="L84">
+        <v>83631</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>0</v>
+      </c>
+      <c r="B85">
+        <v>16</v>
+      </c>
+      <c r="C85">
+        <v>15360</v>
+      </c>
+      <c r="D85">
+        <v>8640</v>
+      </c>
+      <c r="E85">
+        <v>274759</v>
+      </c>
+      <c r="H85" t="s">
+        <v>1</v>
+      </c>
+      <c r="I85">
+        <v>16</v>
+      </c>
+      <c r="J85">
+        <v>15360</v>
+      </c>
+      <c r="K85">
+        <v>8640</v>
+      </c>
+      <c r="L85">
+        <v>79110</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>0</v>
+      </c>
+      <c r="B86">
+        <v>16</v>
+      </c>
+      <c r="C86">
+        <v>15360</v>
+      </c>
+      <c r="D86">
+        <v>8640</v>
+      </c>
+      <c r="E86">
+        <v>291855</v>
+      </c>
+      <c r="H86" t="s">
+        <v>1</v>
+      </c>
+      <c r="I86">
+        <v>16</v>
+      </c>
+      <c r="J86">
+        <v>15360</v>
+      </c>
+      <c r="K86">
+        <v>8640</v>
+      </c>
+      <c r="L86">
+        <v>75744</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>0</v>
+      </c>
+      <c r="B87">
+        <v>16</v>
+      </c>
+      <c r="C87">
+        <v>15360</v>
+      </c>
+      <c r="D87">
+        <v>8640</v>
+      </c>
+      <c r="E87">
+        <v>298222</v>
+      </c>
+      <c r="H87" t="s">
+        <v>1</v>
+      </c>
+      <c r="I87">
+        <v>16</v>
+      </c>
+      <c r="J87">
+        <v>15360</v>
+      </c>
+      <c r="K87">
+        <v>8640</v>
+      </c>
+      <c r="L87">
+        <v>78491</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>0</v>
+      </c>
+      <c r="B88">
+        <v>16</v>
+      </c>
+      <c r="C88">
+        <v>15360</v>
+      </c>
+      <c r="D88">
+        <v>8640</v>
+      </c>
+      <c r="E88">
+        <v>290385</v>
+      </c>
+      <c r="H88" t="s">
+        <v>1</v>
+      </c>
+      <c r="I88">
+        <v>16</v>
+      </c>
+      <c r="J88">
+        <v>15360</v>
+      </c>
+      <c r="K88">
+        <v>8640</v>
+      </c>
+      <c r="L88">
+        <v>77142</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>0</v>
+      </c>
+      <c r="B89">
+        <v>16</v>
+      </c>
+      <c r="C89">
+        <v>15360</v>
+      </c>
+      <c r="D89">
+        <v>8640</v>
+      </c>
+      <c r="E89">
+        <v>289538</v>
+      </c>
+      <c r="H89" t="s">
+        <v>1</v>
+      </c>
+      <c r="I89">
+        <v>16</v>
+      </c>
+      <c r="J89">
+        <v>15360</v>
+      </c>
+      <c r="K89">
+        <v>8640</v>
+      </c>
+      <c r="L89">
+        <v>78007</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>0</v>
+      </c>
+      <c r="B90">
+        <v>16</v>
+      </c>
+      <c r="C90">
+        <v>15360</v>
+      </c>
+      <c r="D90">
+        <v>8640</v>
+      </c>
+      <c r="E90">
+        <v>291819</v>
+      </c>
+      <c r="H90" t="s">
+        <v>1</v>
+      </c>
+      <c r="I90">
+        <v>16</v>
+      </c>
+      <c r="J90">
+        <v>15360</v>
+      </c>
+      <c r="K90">
+        <v>8640</v>
+      </c>
+      <c r="L90">
+        <v>71014</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B91">
+        <v>32</v>
+      </c>
+      <c r="C91">
+        <v>15360</v>
+      </c>
+      <c r="D91">
+        <v>8640</v>
+      </c>
+      <c r="E91">
+        <v>274033</v>
+      </c>
+      <c r="H91" t="s">
+        <v>1</v>
+      </c>
+      <c r="I91">
+        <v>32</v>
+      </c>
+      <c r="J91">
+        <v>15360</v>
+      </c>
+      <c r="K91">
+        <v>8640</v>
+      </c>
+      <c r="L91">
+        <v>72524</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>0</v>
+      </c>
+      <c r="B92">
+        <v>32</v>
+      </c>
+      <c r="C92">
+        <v>15360</v>
+      </c>
+      <c r="D92">
+        <v>8640</v>
+      </c>
+      <c r="E92">
+        <v>315437</v>
+      </c>
+      <c r="H92" t="s">
+        <v>1</v>
+      </c>
+      <c r="I92">
+        <v>32</v>
+      </c>
+      <c r="J92">
+        <v>15360</v>
+      </c>
+      <c r="K92">
+        <v>8640</v>
+      </c>
+      <c r="L92">
+        <v>78081</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>0</v>
+      </c>
+      <c r="B93">
+        <v>32</v>
+      </c>
+      <c r="C93">
+        <v>15360</v>
+      </c>
+      <c r="D93">
+        <v>8640</v>
+      </c>
+      <c r="E93">
+        <v>276459</v>
+      </c>
+      <c r="H93" t="s">
+        <v>1</v>
+      </c>
+      <c r="I93">
+        <v>32</v>
+      </c>
+      <c r="J93">
+        <v>15360</v>
+      </c>
+      <c r="K93">
+        <v>8640</v>
+      </c>
+      <c r="L93">
+        <v>76361</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>0</v>
+      </c>
+      <c r="B94">
+        <v>32</v>
+      </c>
+      <c r="C94">
+        <v>15360</v>
+      </c>
+      <c r="D94">
+        <v>8640</v>
+      </c>
+      <c r="E94">
+        <v>283111</v>
+      </c>
+      <c r="H94" t="s">
+        <v>1</v>
+      </c>
+      <c r="I94">
+        <v>32</v>
+      </c>
+      <c r="J94">
+        <v>15360</v>
+      </c>
+      <c r="K94">
+        <v>8640</v>
+      </c>
+      <c r="L94">
+        <v>84184</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>0</v>
+      </c>
+      <c r="B95">
+        <v>32</v>
+      </c>
+      <c r="C95">
+        <v>15360</v>
+      </c>
+      <c r="D95">
+        <v>8640</v>
+      </c>
+      <c r="E95">
+        <v>294013</v>
+      </c>
+      <c r="H95" t="s">
+        <v>1</v>
+      </c>
+      <c r="I95">
+        <v>32</v>
+      </c>
+      <c r="J95">
+        <v>15360</v>
+      </c>
+      <c r="K95">
+        <v>8640</v>
+      </c>
+      <c r="L95">
+        <v>73879</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>0</v>
+      </c>
+      <c r="B96">
+        <v>32</v>
+      </c>
+      <c r="C96">
+        <v>15360</v>
+      </c>
+      <c r="D96">
+        <v>8640</v>
+      </c>
+      <c r="E96">
+        <v>284122</v>
+      </c>
+      <c r="H96" t="s">
+        <v>1</v>
+      </c>
+      <c r="I96">
+        <v>32</v>
+      </c>
+      <c r="J96">
+        <v>15360</v>
+      </c>
+      <c r="K96">
+        <v>8640</v>
+      </c>
+      <c r="L96">
+        <v>75226</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>0</v>
+      </c>
+      <c r="B97">
+        <v>32</v>
+      </c>
+      <c r="C97">
+        <v>15360</v>
+      </c>
+      <c r="D97">
+        <v>8640</v>
+      </c>
+      <c r="E97">
+        <v>289251</v>
+      </c>
+      <c r="H97" t="s">
+        <v>1</v>
+      </c>
+      <c r="I97">
+        <v>32</v>
+      </c>
+      <c r="J97">
+        <v>15360</v>
+      </c>
+      <c r="K97">
+        <v>8640</v>
+      </c>
+      <c r="L97">
+        <v>73190</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>0</v>
+      </c>
+      <c r="B98">
+        <v>32</v>
+      </c>
+      <c r="C98">
+        <v>15360</v>
+      </c>
+      <c r="D98">
+        <v>8640</v>
+      </c>
+      <c r="E98">
+        <v>279874</v>
+      </c>
+      <c r="H98" t="s">
+        <v>1</v>
+      </c>
+      <c r="I98">
+        <v>32</v>
+      </c>
+      <c r="J98">
+        <v>15360</v>
+      </c>
+      <c r="K98">
+        <v>8640</v>
+      </c>
+      <c r="L98">
+        <v>76036</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>0</v>
+      </c>
+      <c r="B99">
+        <v>32</v>
+      </c>
+      <c r="C99">
+        <v>15360</v>
+      </c>
+      <c r="D99">
+        <v>8640</v>
+      </c>
+      <c r="E99">
+        <v>276647</v>
+      </c>
+      <c r="H99" t="s">
+        <v>1</v>
+      </c>
+      <c r="I99">
+        <v>32</v>
+      </c>
+      <c r="J99">
+        <v>15360</v>
+      </c>
+      <c r="K99">
+        <v>8640</v>
+      </c>
+      <c r="L99">
+        <v>78876</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>0</v>
+      </c>
+      <c r="B100">
+        <v>32</v>
+      </c>
+      <c r="C100">
+        <v>15360</v>
+      </c>
+      <c r="D100">
+        <v>8640</v>
+      </c>
+      <c r="E100">
+        <v>290426</v>
+      </c>
+      <c r="H100" t="s">
+        <v>1</v>
+      </c>
+      <c r="I100">
+        <v>32</v>
+      </c>
+      <c r="J100">
+        <v>15360</v>
+      </c>
+      <c r="K100">
+        <v>8640</v>
+      </c>
+      <c r="L100">
+        <v>85221</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>0</v>
+      </c>
+      <c r="B101">
+        <v>48</v>
+      </c>
+      <c r="C101">
+        <v>15360</v>
+      </c>
+      <c r="D101">
+        <v>8640</v>
+      </c>
+      <c r="E101">
+        <v>289675</v>
+      </c>
+      <c r="H101" t="s">
+        <v>1</v>
+      </c>
+      <c r="I101">
+        <v>48</v>
+      </c>
+      <c r="J101">
+        <v>15360</v>
+      </c>
+      <c r="K101">
+        <v>8640</v>
+      </c>
+      <c r="L101">
+        <v>75722</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>0</v>
+      </c>
+      <c r="B102">
+        <v>48</v>
+      </c>
+      <c r="C102">
+        <v>15360</v>
+      </c>
+      <c r="D102">
+        <v>8640</v>
+      </c>
+      <c r="E102">
+        <v>285726</v>
+      </c>
+      <c r="H102" t="s">
+        <v>1</v>
+      </c>
+      <c r="I102">
+        <v>48</v>
+      </c>
+      <c r="J102">
+        <v>15360</v>
+      </c>
+      <c r="K102">
+        <v>8640</v>
+      </c>
+      <c r="L102">
+        <v>72939</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>0</v>
+      </c>
+      <c r="B103">
+        <v>48</v>
+      </c>
+      <c r="C103">
+        <v>15360</v>
+      </c>
+      <c r="D103">
+        <v>8640</v>
+      </c>
+      <c r="E103">
+        <v>295502</v>
+      </c>
+      <c r="H103" t="s">
+        <v>1</v>
+      </c>
+      <c r="I103">
+        <v>48</v>
+      </c>
+      <c r="J103">
+        <v>15360</v>
+      </c>
+      <c r="K103">
+        <v>8640</v>
+      </c>
+      <c r="L103">
+        <v>78746</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>0</v>
+      </c>
+      <c r="B104">
+        <v>48</v>
+      </c>
+      <c r="C104">
+        <v>15360</v>
+      </c>
+      <c r="D104">
+        <v>8640</v>
+      </c>
+      <c r="E104">
+        <v>302420</v>
+      </c>
+      <c r="H104" t="s">
+        <v>1</v>
+      </c>
+      <c r="I104">
+        <v>48</v>
+      </c>
+      <c r="J104">
+        <v>15360</v>
+      </c>
+      <c r="K104">
+        <v>8640</v>
+      </c>
+      <c r="L104">
+        <v>73986</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>0</v>
+      </c>
+      <c r="B105">
+        <v>48</v>
+      </c>
+      <c r="C105">
+        <v>15360</v>
+      </c>
+      <c r="D105">
+        <v>8640</v>
+      </c>
+      <c r="E105">
+        <v>307922</v>
+      </c>
+      <c r="H105" t="s">
+        <v>1</v>
+      </c>
+      <c r="I105">
+        <v>48</v>
+      </c>
+      <c r="J105">
+        <v>15360</v>
+      </c>
+      <c r="K105">
+        <v>8640</v>
+      </c>
+      <c r="L105">
+        <v>76522</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>0</v>
+      </c>
+      <c r="B106">
+        <v>48</v>
+      </c>
+      <c r="C106">
+        <v>15360</v>
+      </c>
+      <c r="D106">
+        <v>8640</v>
+      </c>
+      <c r="E106">
+        <v>286497</v>
+      </c>
+      <c r="H106" t="s">
+        <v>1</v>
+      </c>
+      <c r="I106">
+        <v>48</v>
+      </c>
+      <c r="J106">
+        <v>15360</v>
+      </c>
+      <c r="K106">
+        <v>8640</v>
+      </c>
+      <c r="L106">
+        <v>75360</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>0</v>
+      </c>
+      <c r="B107">
+        <v>48</v>
+      </c>
+      <c r="C107">
+        <v>15360</v>
+      </c>
+      <c r="D107">
+        <v>8640</v>
+      </c>
+      <c r="E107">
+        <v>281018</v>
+      </c>
+      <c r="H107" t="s">
+        <v>1</v>
+      </c>
+      <c r="I107">
+        <v>48</v>
+      </c>
+      <c r="J107">
+        <v>15360</v>
+      </c>
+      <c r="K107">
+        <v>8640</v>
+      </c>
+      <c r="L107">
+        <v>71512</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>0</v>
+      </c>
+      <c r="B108">
+        <v>48</v>
+      </c>
+      <c r="C108">
+        <v>15360</v>
+      </c>
+      <c r="D108">
+        <v>8640</v>
+      </c>
+      <c r="E108">
+        <v>282034</v>
+      </c>
+      <c r="H108" t="s">
+        <v>1</v>
+      </c>
+      <c r="I108">
+        <v>48</v>
+      </c>
+      <c r="J108">
+        <v>15360</v>
+      </c>
+      <c r="K108">
+        <v>8640</v>
+      </c>
+      <c r="L108">
+        <v>83936</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>0</v>
+      </c>
+      <c r="B109">
+        <v>48</v>
+      </c>
+      <c r="C109">
+        <v>15360</v>
+      </c>
+      <c r="D109">
+        <v>8640</v>
+      </c>
+      <c r="E109">
+        <v>284028</v>
+      </c>
+      <c r="H109" t="s">
+        <v>1</v>
+      </c>
+      <c r="I109">
+        <v>48</v>
+      </c>
+      <c r="J109">
+        <v>15360</v>
+      </c>
+      <c r="K109">
+        <v>8640</v>
+      </c>
+      <c r="L109">
+        <v>76291</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>0</v>
+      </c>
+      <c r="B110">
+        <v>48</v>
+      </c>
+      <c r="C110">
+        <v>15360</v>
+      </c>
+      <c r="D110">
+        <v>8640</v>
+      </c>
+      <c r="E110">
+        <v>280985</v>
+      </c>
+      <c r="H110" t="s">
+        <v>1</v>
+      </c>
+      <c r="I110">
+        <v>48</v>
+      </c>
+      <c r="J110">
+        <v>15360</v>
+      </c>
+      <c r="K110">
+        <v>8640</v>
+      </c>
+      <c r="L110">
+        <v>82468</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>0</v>
+      </c>
+      <c r="B111">
+        <v>64</v>
+      </c>
+      <c r="C111">
+        <v>15360</v>
+      </c>
+      <c r="D111">
+        <v>8640</v>
+      </c>
+      <c r="E111">
+        <v>276351</v>
+      </c>
+      <c r="H111" t="s">
+        <v>1</v>
+      </c>
+      <c r="I111">
+        <v>64</v>
+      </c>
+      <c r="J111">
+        <v>15360</v>
+      </c>
+      <c r="K111">
+        <v>8640</v>
+      </c>
+      <c r="L111">
+        <v>81705</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>0</v>
+      </c>
+      <c r="B112">
+        <v>64</v>
+      </c>
+      <c r="C112">
+        <v>15360</v>
+      </c>
+      <c r="D112">
+        <v>8640</v>
+      </c>
+      <c r="E112">
+        <v>277235</v>
+      </c>
+      <c r="H112" t="s">
+        <v>1</v>
+      </c>
+      <c r="I112">
+        <v>64</v>
+      </c>
+      <c r="J112">
+        <v>15360</v>
+      </c>
+      <c r="K112">
+        <v>8640</v>
+      </c>
+      <c r="L112">
+        <v>76825</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>0</v>
+      </c>
+      <c r="B113">
+        <v>64</v>
+      </c>
+      <c r="C113">
+        <v>15360</v>
+      </c>
+      <c r="D113">
+        <v>8640</v>
+      </c>
+      <c r="E113">
+        <v>282391</v>
+      </c>
+      <c r="H113" t="s">
+        <v>1</v>
+      </c>
+      <c r="I113">
+        <v>64</v>
+      </c>
+      <c r="J113">
+        <v>15360</v>
+      </c>
+      <c r="K113">
+        <v>8640</v>
+      </c>
+      <c r="L113">
+        <v>74411</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>0</v>
+      </c>
+      <c r="B114">
+        <v>64</v>
+      </c>
+      <c r="C114">
+        <v>15360</v>
+      </c>
+      <c r="D114">
+        <v>8640</v>
+      </c>
+      <c r="E114">
+        <v>276467</v>
+      </c>
+      <c r="H114" t="s">
+        <v>1</v>
+      </c>
+      <c r="I114">
+        <v>64</v>
+      </c>
+      <c r="J114">
+        <v>15360</v>
+      </c>
+      <c r="K114">
+        <v>8640</v>
+      </c>
+      <c r="L114">
+        <v>77620</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>0</v>
+      </c>
+      <c r="B115">
+        <v>64</v>
+      </c>
+      <c r="C115">
+        <v>15360</v>
+      </c>
+      <c r="D115">
+        <v>8640</v>
+      </c>
+      <c r="E115">
+        <v>280223</v>
+      </c>
+      <c r="H115" t="s">
+        <v>1</v>
+      </c>
+      <c r="I115">
+        <v>64</v>
+      </c>
+      <c r="J115">
+        <v>15360</v>
+      </c>
+      <c r="K115">
+        <v>8640</v>
+      </c>
+      <c r="L115">
+        <v>79877</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>0</v>
+      </c>
+      <c r="B116">
+        <v>64</v>
+      </c>
+      <c r="C116">
+        <v>15360</v>
+      </c>
+      <c r="D116">
+        <v>8640</v>
+      </c>
+      <c r="E116">
+        <v>280916</v>
+      </c>
+      <c r="H116" t="s">
+        <v>1</v>
+      </c>
+      <c r="I116">
+        <v>64</v>
+      </c>
+      <c r="J116">
+        <v>15360</v>
+      </c>
+      <c r="K116">
+        <v>8640</v>
+      </c>
+      <c r="L116">
+        <v>86967</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>0</v>
+      </c>
+      <c r="B117">
+        <v>64</v>
+      </c>
+      <c r="C117">
+        <v>15360</v>
+      </c>
+      <c r="D117">
+        <v>8640</v>
+      </c>
+      <c r="E117">
+        <v>281358</v>
+      </c>
+      <c r="H117" t="s">
+        <v>1</v>
+      </c>
+      <c r="I117">
+        <v>64</v>
+      </c>
+      <c r="J117">
+        <v>15360</v>
+      </c>
+      <c r="K117">
+        <v>8640</v>
+      </c>
+      <c r="L117">
+        <v>77415</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>0</v>
+      </c>
+      <c r="B118">
+        <v>64</v>
+      </c>
+      <c r="C118">
+        <v>15360</v>
+      </c>
+      <c r="D118">
+        <v>8640</v>
+      </c>
+      <c r="E118">
+        <v>274003</v>
+      </c>
+      <c r="H118" t="s">
+        <v>1</v>
+      </c>
+      <c r="I118">
+        <v>64</v>
+      </c>
+      <c r="J118">
+        <v>15360</v>
+      </c>
+      <c r="K118">
+        <v>8640</v>
+      </c>
+      <c r="L118">
+        <v>82055</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>0</v>
+      </c>
+      <c r="B119">
+        <v>64</v>
+      </c>
+      <c r="C119">
+        <v>15360</v>
+      </c>
+      <c r="D119">
+        <v>8640</v>
+      </c>
+      <c r="E119">
+        <v>284150</v>
+      </c>
+      <c r="H119" t="s">
+        <v>1</v>
+      </c>
+      <c r="I119">
+        <v>64</v>
+      </c>
+      <c r="J119">
+        <v>15360</v>
+      </c>
+      <c r="K119">
+        <v>8640</v>
+      </c>
+      <c r="L119">
+        <v>75441</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>0</v>
+      </c>
+      <c r="B120">
+        <v>64</v>
+      </c>
+      <c r="C120">
+        <v>15360</v>
+      </c>
+      <c r="D120">
+        <v>8640</v>
+      </c>
+      <c r="E120">
+        <v>285693</v>
+      </c>
+      <c r="H120" t="s">
+        <v>1</v>
+      </c>
+      <c r="I120">
+        <v>64</v>
+      </c>
+      <c r="J120">
+        <v>15360</v>
+      </c>
+      <c r="K120">
+        <v>8640</v>
+      </c>
+      <c r="L120">
+        <v>84685</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>3.9943696787700294</v>
+      </c>
+      <c r="C2">
+        <v>5.1534654383935159</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>3.8125539265794375</v>
+      </c>
+      <c r="C3">
+        <v>4.7090781275134441</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>3.6796724196808177</v>
+      </c>
+      <c r="C4">
+        <v>4.0716959852840366</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>3.5350022546835924</v>
+      </c>
+      <c r="C5">
+        <v>3.7192699476455964</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>3.2052384201763244</v>
+      </c>
+      <c r="C6">
+        <v>3.4981791428221087</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>3.4095045155737616</v>
+      </c>
+      <c r="C7">
+        <v>3.7447408343380513</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>3.296427815751465</v>
+      </c>
+      <c r="C8">
+        <v>3.6918827877631912</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>3.4781045279651011</v>
+      </c>
+      <c r="C9">
+        <v>3.6387297033031616</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>16</v>
+      </c>
+      <c r="B10">
+        <v>3.5406624507477904</v>
+      </c>
+      <c r="C10">
+        <v>3.6925317498724777</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>32</v>
+      </c>
+      <c r="B11">
+        <v>3.3985738721090026</v>
+      </c>
+      <c r="C11">
+        <v>3.7014664326027882</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>48</v>
+      </c>
+      <c r="B12">
+        <v>3.3542727739364113</v>
+      </c>
+      <c r="C12">
+        <v>3.7731269267552858</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>64</v>
+      </c>
+      <c r="B13">
+        <v>3.3365570938295241</v>
+      </c>
+      <c r="C13">
+        <v>3.5116480405921697</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>